--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/FEDERATED LEARNING/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="14_{5D7C720F-F93E-496B-97CE-ECDD9BC9B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{762BB7F1-AA54-418E-8B03-8D281C355080}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="14_{5D7C720F-F93E-496B-97CE-ECDD9BC9B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC35B26-0568-42DB-8DDD-9A9451090D47}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="3960" windowWidth="28395" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8325" yWindow="2205" windowWidth="28395" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>unbalance</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v1</t>
   </si>
 </sst>
 </file>
@@ -131,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1032,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1060,48 +1067,48 @@
         <v>12</v>
       </c>
       <c r="L17" s="5">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7">
+        <v>100</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="8">
         <v>0.67</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4">
-        <v>100</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="6">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
@@ -1139,7 +1146,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1184,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1222,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1253,7 +1260,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1291,7 +1298,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1374,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1404,6 +1411,175 @@
       <c r="L28" s="1">
         <v>0.28999999999999998</v>
       </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>1E-3</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>1E-3</v>
+      </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="M32">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>1E-3</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>1E-3</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="14_{5D7C720F-F93E-496B-97CE-ECDD9BC9B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC35B26-0568-42DB-8DDD-9A9451090D47}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="14_{5D7C720F-F93E-496B-97CE-ECDD9BC9B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D08FA1-04E6-4601-8A01-70D68FFD2E62}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="2205" windowWidth="28395" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8325" yWindow="2100" windowWidth="28395" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="20">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t>v1</t>
+  </si>
+  <si>
+    <t>v2 (4 groups)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +107,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +141,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -134,10 +156,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,8 +184,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +490,7 @@
     <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -500,7 +528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -538,7 +566,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -576,7 +604,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -614,7 +642,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -652,7 +680,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -690,7 +718,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -728,7 +756,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -766,7 +794,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -804,7 +832,12 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -842,7 +875,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -879,8 +912,11 @@
       <c r="L12" s="5">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -918,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -956,7 +992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -994,7 +1030,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1067,6 +1103,9 @@
         <v>12</v>
       </c>
       <c r="L17" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="M17" s="4">
         <v>0.68</v>
       </c>
     </row>
@@ -1218,7 +1257,7 @@
       <c r="K23" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="14">
         <v>0.26</v>
       </c>
     </row>
@@ -1495,7 +1534,7 @@
       <c r="L32" s="1">
         <v>0.65</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="13">
         <v>0.46</v>
       </c>
     </row>
@@ -1533,6 +1572,9 @@
       <c r="K33">
         <v>4</v>
       </c>
+      <c r="L33" s="1">
+        <v>0.46</v>
+      </c>
       <c r="M33">
         <v>0.28999999999999998</v>
       </c>
@@ -1570,6 +1612,9 @@
       </c>
       <c r="K34">
         <v>4</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.45</v>
       </c>
       <c r="M34">
         <v>0.27</v>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25217"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="14_{5D7C720F-F93E-496B-97CE-ECDD9BC9B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D08FA1-04E6-4601-8A01-70D68FFD2E62}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="14_{5D7C720F-F93E-496B-97CE-ECDD9BC9B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C0A6D84-33F4-4A86-BE1B-2619708BE8E9}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="8325" yWindow="2100" windowWidth="28395" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="19">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -45,53 +55,50 @@
     <t>E</t>
   </si>
   <si>
+    <t>iid</t>
+  </si>
+  <si>
+    <t>unbalance</t>
+  </si>
+  <si>
     <t>OPTIMIZER</t>
   </si>
   <si>
     <t>WEIGHT DECAY</t>
   </si>
   <si>
+    <t>GROUPS</t>
+  </si>
+  <si>
     <t>ACCURACY</t>
   </si>
   <si>
     <t>GN</t>
   </si>
   <si>
-    <t>GROUPS</t>
-  </si>
-  <si>
     <t>SGD</t>
   </si>
   <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
     <t>NaN</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>BN</t>
-  </si>
-  <si>
-    <t>iid</t>
-  </si>
-  <si>
-    <t>unbalance</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
     <t>v1</t>
-  </si>
-  <si>
-    <t>v2 (4 groups)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +144,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -158,9 +165,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,18 +181,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,11 +473,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -490,7 +492,7 @@
     <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -510,27 +512,27 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -554,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2">
         <v>5.0000000000000001E-4</v>
@@ -566,9 +568,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -592,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2">
         <v>5.0000000000000001E-4</v>
@@ -604,9 +606,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -630,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2">
         <v>5.0000000000000001E-4</v>
@@ -642,9 +644,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" s="2">
         <v>5.0000000000000001E-4</v>
@@ -680,9 +682,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -706,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2">
         <v>5.0000000000000001E-3</v>
@@ -718,9 +720,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2">
         <v>5.0000000000000001E-3</v>
@@ -756,9 +758,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -782,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J8" s="2">
         <v>5.0000000000000002E-5</v>
@@ -794,9 +796,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" s="2">
         <v>5.0000000000000002E-5</v>
@@ -832,14 +834,14 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="M10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -863,21 +865,21 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J11" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L11" s="1">
         <v>0.46</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>100</v>
@@ -901,24 +903,24 @@
         <v>0</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J12" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K12" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L12" s="5">
         <v>0.46</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -942,21 +944,21 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -980,35 +982,35 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" s="2">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="K14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>100</v>
-      </c>
-      <c r="C15" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
         <v>0.01</v>
       </c>
-      <c r="D15" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
@@ -1017,22 +1019,22 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1">
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -1056,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J16" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L16" s="1">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>100</v>
@@ -1094,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J17" s="6">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L17" s="5">
         <v>0.67</v>
@@ -1109,47 +1111,47 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7">
-        <v>100</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="7">
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>1E-3</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="12">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="8">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="1">
         <v>0.67</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" s="9">
         <v>500</v>
@@ -1173,21 +1175,21 @@
         <v>0</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J20" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L20" s="11">
         <v>0.89</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B21" s="9">
         <v>500</v>
@@ -1211,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J21" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K21" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L21" s="11">
         <v>0.74</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -1249,21 +1251,21 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J23" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="14">
+        <v>17</v>
+      </c>
+      <c r="L23" s="8">
         <v>0.26</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -1287,21 +1289,21 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J24" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L24" s="1">
         <v>0.47</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -1325,21 +1327,21 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J25" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L25" s="1">
         <v>0.24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -1363,21 +1365,21 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J26" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L26" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>100</v>
@@ -1401,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J27" s="2">
         <v>5.0000000000000001E-4</v>
@@ -1413,9 +1415,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -1439,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J28" s="2">
         <v>5.0000000000000001E-4</v>
@@ -1451,179 +1453,182 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="L30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31">
-        <v>100</v>
-      </c>
-      <c r="C31">
-        <v>1E-3</v>
-      </c>
-      <c r="D31">
-        <v>0.1</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="1">
+    <row r="31" spans="1:13">
+      <c r="A31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="9">
+        <v>100</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>10</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="11">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <v>100</v>
-      </c>
-      <c r="C32">
-        <v>1E-3</v>
-      </c>
-      <c r="D32">
-        <v>0.1</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="M32" s="13">
+      <c r="M31">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="9">
+        <v>100</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>10</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="M32" s="7">
         <v>0.46</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33">
-        <v>100</v>
-      </c>
-      <c r="C33">
-        <v>1E-3</v>
-      </c>
-      <c r="D33">
-        <v>0.1</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K33">
+    <row r="33" spans="1:13">
+      <c r="A33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="9">
+        <v>100</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>10</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K33" s="9">
         <v>4</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="11">
         <v>0.46</v>
       </c>
       <c r="M33">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34">
-        <v>100</v>
-      </c>
-      <c r="C34">
-        <v>1E-3</v>
-      </c>
-      <c r="D34">
-        <v>0.1</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K34">
+    <row r="34" spans="1:13">
+      <c r="A34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="9">
+        <v>100</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>10</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K34" s="9">
         <v>4</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="11">
         <v>0.45</v>
       </c>
       <c r="M34">
         <v>0.27</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="J36" s="2"/>
     </row>
   </sheetData>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive - Politecnico di Torino\PoliTO\MASTER\MACHINE LEARNING AND DEEP LEARNING\MLDL Federated Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7555B17B-D210-406B-97E6-47319222A1BE}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3135" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>OPTIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = results we use</t>
   </si>
 </sst>
 </file>
@@ -110,12 +113,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,8 +125,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +152,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -158,10 +167,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,7 +183,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,10 +191,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,37 +500,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -539,10 +553,10 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="12">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="G2" s="11">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -557,7 +571,7 @@
       <c r="L2" s="6">
         <v>0.89</v>
       </c>
-      <c r="M2" s="8"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -579,10 +593,10 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -597,7 +611,7 @@
       <c r="L3" s="6">
         <v>0.74</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -613,12 +627,12 @@
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="8"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>100</v>
@@ -630,15 +644,15 @@
         <v>0.1</v>
       </c>
       <c r="E5" s="3">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -647,14 +661,14 @@
       <c r="J5" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K5" s="3">
-        <v>4</v>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L5" s="6">
-        <v>0.46</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0.42</v>
+        <v>0.67</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.68</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -678,9 +692,9 @@
         <v>1</v>
       </c>
       <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -692,11 +706,11 @@
       <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="M6" s="7">
         <v>0.67</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0.68</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -719,11 +733,11 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>8</v>
@@ -734,17 +748,17 @@
       <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0.67</v>
+      <c r="L7" s="13">
+        <v>0.32</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.66</v>
       </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>100</v>
@@ -756,16 +770,16 @@
         <v>0.1</v>
       </c>
       <c r="E8" s="3">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
-        <v>0</v>
+      <c r="G8" s="11">
+        <v>1</v>
       </c>
       <c r="H8" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>8</v>
@@ -773,14 +787,14 @@
       <c r="J8" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0.66</v>
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.42</v>
       </c>
       <c r="N8" s="3"/>
     </row>
@@ -803,10 +817,10 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -818,10 +832,10 @@
       <c r="K9" s="3">
         <v>4</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>0.46</v>
       </c>
       <c r="N9" s="3"/>
@@ -845,10 +859,10 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -860,10 +874,10 @@
       <c r="K10" s="3">
         <v>4</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="13">
         <v>0.27</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>0.45</v>
       </c>
       <c r="N10" s="3"/>
@@ -889,15 +903,21 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J13" s="2"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="9"/>
       <c r="M13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L14" s="9"/>
+      <c r="L14" s="8"/>
       <c r="M14" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L16" s="14"/>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7555B17B-D210-406B-97E6-47319222A1BE}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9732241A-0230-4759-923D-DD8720A72F3D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3135" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve"> = results we use</t>
+  </si>
+  <si>
+    <t>Es</t>
+  </si>
+  <si>
+    <t>Ec</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,9 +499,9 @@
     <col min="5" max="5" width="4.5703125" customWidth="1"/>
     <col min="6" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -707,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="13">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="M6" s="7">
         <v>0.67</v>
@@ -749,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="13">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="M7" s="7">
         <v>0.66</v>
@@ -770,7 +776,7 @@
         <v>0.1</v>
       </c>
       <c r="E8" s="3">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -920,6 +926,281 @@
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3">
+        <v>100</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>128</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>100</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>128</v>
+      </c>
+      <c r="F21" s="3">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>128</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
+        <v>100</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>128</v>
+      </c>
+      <c r="F23" s="3">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>128</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3">
+        <v>100</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>125</v>
+      </c>
+      <c r="F25" s="3">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L25" s="3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9732241A-0230-4759-923D-DD8720A72F3D}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B66171E-187A-4FD3-80BA-17301F342636}"/>
   <bookViews>
     <workbookView xWindow="3135" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +203,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -487,7 +488,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1002,7 @@
       <c r="L20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="15">
         <v>0.71</v>
       </c>
     </row>
@@ -1042,7 +1043,7 @@
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="15">
         <v>0.31</v>
       </c>
     </row>
@@ -1083,7 +1084,7 @@
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="15">
         <v>0.52</v>
       </c>
     </row>
@@ -1124,6 +1125,9 @@
       <c r="L23" s="3">
         <v>4</v>
       </c>
+      <c r="M23" s="15">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1162,6 +1166,9 @@
       <c r="L24" s="3">
         <v>4</v>
       </c>
+      <c r="M24" s="15">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1199,6 +1206,9 @@
       </c>
       <c r="L25" s="3">
         <v>4</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B66171E-187A-4FD3-80BA-17301F342636}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4443CBC6-DE4E-4FA7-82E9-238985CAB747}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -95,13 +95,19 @@
   </si>
   <si>
     <t>Ec</t>
+  </si>
+  <si>
+    <t>COMM ROUNDS</t>
+  </si>
+  <si>
+    <t>new seed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +144,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +176,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -173,11 +191,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,9 +223,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +527,7 @@
     <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -540,8 +561,11 @@
       <c r="K1" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -581,7 +605,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -621,7 +645,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -637,7 +661,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -678,8 +702,11 @@
         <v>0.68</v>
       </c>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="16">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -720,8 +747,11 @@
         <v>0.67</v>
       </c>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="16">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -762,8 +792,11 @@
         <v>0.66</v>
       </c>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -804,8 +837,11 @@
         <v>0.42</v>
       </c>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="16">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -846,8 +882,11 @@
         <v>0.46</v>
       </c>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="16">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -888,8 +927,11 @@
         <v>0.45</v>
       </c>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="16">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -905,23 +947,23 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J13" s="2"/>
       <c r="L13" s="9"/>
       <c r="M13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L14" s="8"/>
       <c r="M14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L16" s="14"/>
       <c r="M16" t="s">
         <v>17</v>
@@ -932,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
@@ -970,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3">
         <v>1E-3</v>
@@ -1011,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3">
         <v>1E-3</v>
@@ -1052,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3">
         <v>1E-3</v>
@@ -1093,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3">
         <v>1E-3</v>
@@ -1134,7 +1176,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3">
         <v>1E-3</v>
@@ -1175,7 +1217,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C25" s="3">
         <v>1E-3</v>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4443CBC6-DE4E-4FA7-82E9-238985CAB747}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89D5FE9D-BCD2-46F3-B530-0A080874999D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="3495" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -101,13 +101,25 @@
   </si>
   <si>
     <t>new seed</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop </t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +163,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +208,18 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,13 +227,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,8 +278,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
@@ -525,9 +584,13 @@
     <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -564,8 +627,11 @@
       <c r="P1" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -605,7 +671,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -645,7 +711,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -661,7 +727,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +772,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -750,8 +816,14 @@
       <c r="P6" s="16">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -785,7 +857,7 @@
       <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="18">
         <v>0.52</v>
       </c>
       <c r="M7" s="7">
@@ -795,8 +867,11 @@
       <c r="P7" s="16">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -841,7 +916,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -886,7 +961,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -920,7 +995,7 @@
       <c r="K10" s="3">
         <v>4</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="18">
         <v>0.27</v>
       </c>
       <c r="M10" s="7">
@@ -930,8 +1005,11 @@
       <c r="P10" s="16">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10" s="19">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -947,29 +1025,29 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J13" s="2"/>
       <c r="L13" s="9"/>
       <c r="M13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L14" s="8"/>
       <c r="M14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L16" s="14"/>
       <c r="M16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1125,11 @@
       <c r="M20" s="15">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P20" s="16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1169,17 @@
       <c r="M21" s="15">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P21" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1220,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1170,8 +1260,11 @@
       <c r="M23" s="15">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P23" s="16">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1211,8 +1304,11 @@
       <c r="M24" s="15">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P24" s="16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89D5FE9D-BCD2-46F3-B530-0A080874999D}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA88D09F-D843-4EFE-955A-5D83784E52B4}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="3495" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="30">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>drop</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>PERCENTAGE</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; FedAVG</t>
   </si>
 </sst>
 </file>
@@ -300,6 +312,224 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>77755</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>903903</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>326220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A03F177-1331-BA57-FDBF-EF0F506E73B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6814528" y="63795"/>
+          <a:ext cx="826148" cy="262425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" b="1"/>
+            <a:t>FedAVG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89224</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>884464</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFDEB47-9AE9-4310-A014-9A94DC5EDB16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6825997" y="3491185"/>
+          <a:ext cx="795240" cy="263397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" b="1"/>
+            <a:t>FedGKT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95833</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>891073</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8464ABCF-8CE9-416F-90FB-FEEADA1B574C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6700157" y="5300565"/>
+          <a:ext cx="795240" cy="262425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" b="1"/>
+            <a:t>FedProx</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,102 +808,66 @@
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="7" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="5.7109375" customWidth="1"/>
     <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
     <col min="17" max="17" width="4.5703125" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3">
-        <v>500</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>500</v>
@@ -702,75 +896,70 @@
       <c r="J3" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K3" s="3">
-        <v>4</v>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L3" s="6">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="6"/>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>500</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.74</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>100</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.67</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0.68</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="3"/>
-      <c r="P5" s="16">
-        <v>0.68</v>
-      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -791,8 +980,8 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="12">
-        <v>0</v>
+      <c r="G6" s="11">
+        <v>1</v>
       </c>
       <c r="H6" s="12">
         <v>0</v>
@@ -806,21 +995,15 @@
       <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="13">
-        <v>0.32</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="L6" s="6">
         <v>0.67</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.68</v>
       </c>
       <c r="N6" s="3"/>
       <c r="P6" s="16">
-        <v>0.16</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" t="s">
-        <v>25</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -845,8 +1028,8 @@
       <c r="G7" s="12">
         <v>0</v>
       </c>
-      <c r="H7" s="11">
-        <v>1</v>
+      <c r="H7" s="12">
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>8</v>
@@ -857,23 +1040,26 @@
       <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="18">
-        <v>0.52</v>
+      <c r="L7" s="13">
+        <v>0.32</v>
       </c>
       <c r="M7" s="7">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="N7" s="3"/>
       <c r="P7" s="16">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R7" s="19">
-        <v>0.28999999999999998</v>
+        <v>0.16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>100</v>
@@ -890,11 +1076,11 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>8</v>
@@ -902,18 +1088,21 @@
       <c r="J8" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K8" s="3">
-        <v>4</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0.42</v>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.66</v>
       </c>
       <c r="N8" s="3"/>
       <c r="P8" s="16">
-        <v>0.45</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -935,8 +1124,8 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="12">
-        <v>0</v>
+      <c r="G9" s="11">
+        <v>1</v>
       </c>
       <c r="H9" s="12">
         <v>0</v>
@@ -950,15 +1139,15 @@
       <c r="K9" s="3">
         <v>4</v>
       </c>
-      <c r="L9" s="13">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0.46</v>
+      <c r="L9" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.42</v>
       </c>
       <c r="N9" s="3"/>
       <c r="P9" s="16">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -983,8 +1172,8 @@
       <c r="G10" s="12">
         <v>0</v>
       </c>
-      <c r="H10" s="11">
-        <v>1</v>
+      <c r="H10" s="12">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>8</v>
@@ -995,138 +1184,139 @@
       <c r="K10" s="3">
         <v>4</v>
       </c>
-      <c r="L10" s="18">
-        <v>0.27</v>
+      <c r="L10" s="13">
+        <v>0.28999999999999998</v>
       </c>
       <c r="M10" s="7">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="N10" s="3"/>
       <c r="P10" s="16">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0.27</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="P11" s="16">
         <v>0.37</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R11" s="19">
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J13" s="2"/>
-      <c r="L13" s="9"/>
-      <c r="M13" t="s">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+      <c r="L14" s="9"/>
+      <c r="M14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L14" s="8"/>
-      <c r="M14" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L15" s="8"/>
+      <c r="M15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="14"/>
-      <c r="M16" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L17" s="14"/>
+      <c r="M17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="10" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="3">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>128</v>
-      </c>
-      <c r="F20" s="3">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0.71</v>
-      </c>
-      <c r="P20" s="16">
-        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1151,8 +1341,8 @@
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="12">
-        <v>0</v>
+      <c r="H21" s="11">
+        <v>1</v>
       </c>
       <c r="I21" s="12">
         <v>0</v>
@@ -1167,16 +1357,10 @@
         <v>10</v>
       </c>
       <c r="M21" s="15">
-        <v>0.31</v>
+        <v>0.71</v>
       </c>
       <c r="P21" s="16">
-        <v>0.23</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" t="s">
-        <v>24</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1204,8 +1388,8 @@
       <c r="H22" s="12">
         <v>0</v>
       </c>
-      <c r="I22" s="11">
-        <v>1</v>
+      <c r="I22" s="12">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1217,12 +1401,21 @@
         <v>10</v>
       </c>
       <c r="M22" s="15">
-        <v>0.52</v>
+        <v>0.31</v>
+      </c>
+      <c r="P22" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B23" s="3">
         <v>10</v>
@@ -1242,11 +1435,11 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>8</v>
@@ -1254,14 +1447,11 @@
       <c r="K23" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L23" s="3">
-        <v>4</v>
+      <c r="L23" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M23" s="15">
-        <v>0.73</v>
-      </c>
-      <c r="P23" s="16">
-        <v>0.74</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -1286,8 +1476,8 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="12">
-        <v>0</v>
+      <c r="H24" s="11">
+        <v>1</v>
       </c>
       <c r="I24" s="12">
         <v>0</v>
@@ -1302,10 +1492,10 @@
         <v>4</v>
       </c>
       <c r="M24" s="15">
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
       <c r="P24" s="16">
-        <v>0.25</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -1322,7 +1512,7 @@
         <v>0.1</v>
       </c>
       <c r="E25" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F25" s="3">
         <v>10</v>
@@ -1333,8 +1523,8 @@
       <c r="H25" s="12">
         <v>0</v>
       </c>
-      <c r="I25" s="11">
-        <v>1</v>
+      <c r="I25" s="12">
+        <v>0</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>8</v>
@@ -1346,11 +1536,728 @@
         <v>4</v>
       </c>
       <c r="M25" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="P25" s="16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>128</v>
+      </c>
+      <c r="F26" s="3">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L26" s="3">
+        <v>4</v>
+      </c>
+      <c r="M26" s="15">
         <v>0.37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="P31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>1</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>50</v>
+      </c>
+      <c r="N35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>90</v>
+      </c>
+      <c r="N36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>0.01</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L39" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>0.01</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L40" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>0.01</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L41" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>30</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D43">
+        <v>0.1</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="11">
+        <v>1</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L43" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>50</v>
+      </c>
+      <c r="N43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>0.01</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44">
+        <v>50</v>
+      </c>
+      <c r="N44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>0.01</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>50</v>
+      </c>
+      <c r="N45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>30</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>0.01</v>
+      </c>
+      <c r="H47" s="11">
+        <v>1</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>90</v>
+      </c>
+      <c r="N47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>0.01</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48">
+        <v>90</v>
+      </c>
+      <c r="N48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>30</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D49">
+        <v>0.1</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>0.01</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L49" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49">
+        <v>90</v>
+      </c>
+      <c r="N49" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA88D09F-D843-4EFE-955A-5D83784E52B4}"/>
+  <xr:revisionPtr revIDLastSave="593" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93F4D6AC-F051-4EAE-B6AD-E6CA819F39EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="43">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -121,10 +121,49 @@
     <t>PERCENTAGE</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -&gt; FedAVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; FedAVG == FedProx(mu=0) if no strugglers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; FedProx(mu=0) != FedAVG if there are strugglers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; FedProx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; FedAVG != FedProx(mu=0) if there are strugglers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; mu=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; mu=0,01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; 0% strugglers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; 50% strugglers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; 90% strugglers</t>
+  </si>
+  <si>
+    <t>FedProx(mu=0,01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; FedProx(mu=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; FedProx(mu=0,01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; GroupNorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; BatchNorm</t>
   </si>
 </sst>
 </file>
@@ -191,18 +230,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -228,6 +261,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -257,12 +344,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,25 +361,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -349,7 +447,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -420,7 +518,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -491,7 +589,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -795,78 +893,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="5.7109375" customWidth="1"/>
     <col min="15" max="15" width="2.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
     <col min="17" max="17" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3">
@@ -884,10 +982,10 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -899,14 +997,18 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="28">
         <v>0.89</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="V3" s="29"/>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
@@ -924,10 +1026,10 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="11">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -939,13 +1041,17 @@
       <c r="K4" s="3">
         <v>4</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="28">
         <v>0.74</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V4" s="7"/>
+      <c r="W4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -957,12 +1063,13 @@
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="6"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3">
@@ -980,10 +1087,10 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -995,19 +1102,23 @@
       <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="28">
         <v>0.67</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="11">
         <v>0.68</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="P6" s="16">
+      <c r="P6" s="14">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="V6" s="26"/>
+      <c r="W6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
@@ -1025,10 +1136,10 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -1040,14 +1151,14 @@
       <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <v>0.32</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>0.67</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="P7" s="16">
+      <c r="P7" s="14">
         <v>0.16</v>
       </c>
       <c r="Q7" t="s">
@@ -1056,9 +1167,13 @@
       <c r="R7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="V7" s="27"/>
+      <c r="W7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
@@ -1076,10 +1191,10 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -1091,22 +1206,22 @@
       <c r="K8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="16">
         <v>0.52</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>0.66</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="P8" s="16">
+      <c r="P8" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="17">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
@@ -1124,10 +1239,10 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -1139,19 +1254,23 @@
       <c r="K9" s="3">
         <v>4</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="28">
         <v>0.45</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="11">
         <v>0.42</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="P9" s="16">
+      <c r="P9" s="14">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="V9" s="12"/>
+      <c r="W9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3">
@@ -1169,10 +1288,10 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1184,19 +1303,19 @@
       <c r="K10" s="3">
         <v>4</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>0.46</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="P10" s="16">
+      <c r="P10" s="14">
         <v>0.22</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
@@ -1214,10 +1333,10 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -1229,21 +1348,21 @@
       <c r="K11" s="3">
         <v>4</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="16">
         <v>0.27</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>0.45</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="P11" s="16">
+      <c r="P11" s="14">
         <v>0.37</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="17">
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1259,68 +1378,52 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J14" s="2"/>
-      <c r="L14" s="9"/>
-      <c r="M14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L15" s="8"/>
-      <c r="M15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="14"/>
-      <c r="M17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="10" t="s">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="3">
@@ -1341,10 +1444,10 @@
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10">
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -1356,15 +1459,15 @@
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="13">
         <v>0.71</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="14">
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="3">
@@ -1385,10 +1488,10 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
         <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -1400,10 +1503,10 @@
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="13">
         <v>0.31</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="14">
         <v>0.23</v>
       </c>
       <c r="Q22" t="s">
@@ -1413,8 +1516,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="3">
@@ -1435,10 +1538,10 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -1450,12 +1553,12 @@
       <c r="L23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="13">
         <v>0.52</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="3">
@@ -1476,10 +1579,10 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-      <c r="I24" s="12">
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
         <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -1491,15 +1594,15 @@
       <c r="L24" s="3">
         <v>4</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="13">
         <v>0.73</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="14">
         <v>0.74</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="3">
@@ -1520,10 +1623,10 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12">
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
         <v>0</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -1535,15 +1638,15 @@
       <c r="L25" s="3">
         <v>4</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="13">
         <v>0.24</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="14">
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="3">
@@ -1564,10 +1667,10 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -1579,52 +1682,52 @@
       <c r="L26" s="3">
         <v>4</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="13">
         <v>0.37</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="10" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -1643,13 +1746,13 @@
       <c r="F31">
         <v>10</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <v>1</v>
-      </c>
-      <c r="I31" s="12">
+      <c r="G31" s="22">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
         <v>0</v>
       </c>
       <c r="J31" t="s">
@@ -1661,17 +1764,25 @@
       <c r="L31" t="s">
         <v>10</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" s="15">
+      <c r="M31" s="19">
+        <v>0</v>
+      </c>
+      <c r="N31" s="13">
         <v>0.73</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="V31" s="22"/>
+      <c r="W31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1690,13 +1801,13 @@
       <c r="F32">
         <v>10</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0</v>
-      </c>
-      <c r="I32" s="12">
+      <c r="G32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
         <v>0</v>
       </c>
       <c r="J32" t="s">
@@ -1708,17 +1819,25 @@
       <c r="L32" t="s">
         <v>10</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="M32" s="19">
+        <v>0</v>
+      </c>
+      <c r="N32" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="P32" s="23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="V32" s="30"/>
+      <c r="W32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
@@ -1737,13 +1856,13 @@
       <c r="F33">
         <v>10</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
         <v>1</v>
       </c>
       <c r="J33" t="s">
@@ -1755,17 +1874,32 @@
       <c r="L33" t="s">
         <v>10</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="M33" s="19">
+        <v>0</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="P33" s="23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="V34" s="19"/>
+      <c r="W34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -1784,13 +1918,13 @@
       <c r="F35">
         <v>10</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <v>1</v>
-      </c>
-      <c r="I35" s="12">
+      <c r="G35" s="22">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
         <v>0</v>
       </c>
       <c r="J35" t="s">
@@ -1802,17 +1936,25 @@
       <c r="L35" t="s">
         <v>10</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="20">
         <v>50</v>
       </c>
-      <c r="N35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N35" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="V35" s="20"/>
+      <c r="W35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
@@ -1831,13 +1973,13 @@
       <c r="F36">
         <v>10</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
-        <v>1</v>
-      </c>
-      <c r="I36" s="12">
+      <c r="G36" s="22">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
         <v>0</v>
       </c>
       <c r="J36" t="s">
@@ -1849,17 +1991,87 @@
       <c r="L36" t="s">
         <v>10</v>
       </c>
-      <c r="M36">
-        <v>90</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="M36" s="20">
+        <v>50</v>
+      </c>
+      <c r="N36" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P36" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="P36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="V36" s="21"/>
+      <c r="W36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="20">
+        <v>50</v>
+      </c>
+      <c r="N37" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="P37" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -1878,13 +2090,13 @@
       <c r="F39">
         <v>10</v>
       </c>
-      <c r="G39">
-        <v>0.01</v>
-      </c>
-      <c r="H39" s="11">
-        <v>1</v>
-      </c>
-      <c r="I39" s="12">
+      <c r="G39" s="22">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1</v>
+      </c>
+      <c r="I39" s="10">
         <v>0</v>
       </c>
       <c r="J39" t="s">
@@ -1896,14 +2108,25 @@
       <c r="L39" t="s">
         <v>10</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" s="15">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M39" s="21">
+        <v>90</v>
+      </c>
+      <c r="N39" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="P39" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="V39" s="24"/>
+      <c r="W39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
@@ -1922,13 +2145,13 @@
       <c r="F40">
         <v>10</v>
       </c>
-      <c r="G40">
-        <v>0.01</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0</v>
-      </c>
-      <c r="I40" s="12">
+      <c r="G40" s="22">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
         <v>0</v>
       </c>
       <c r="J40" t="s">
@@ -1940,14 +2163,25 @@
       <c r="L40" t="s">
         <v>10</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="M40" s="21">
+        <v>90</v>
+      </c>
+      <c r="N40" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="P40" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="V40" s="25"/>
+      <c r="W40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
@@ -1966,13 +2200,13 @@
       <c r="F41">
         <v>10</v>
       </c>
-      <c r="G41">
-        <v>0.01</v>
-      </c>
-      <c r="H41" s="12">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
+      <c r="G41" s="22">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
         <v>1</v>
       </c>
       <c r="J41" t="s">
@@ -1984,21 +2218,28 @@
       <c r="L41" t="s">
         <v>10</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="M41" s="21">
+        <v>90</v>
+      </c>
+      <c r="N41" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="P41" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43">
         <v>30</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>1E-3</v>
       </c>
       <c r="D43">
@@ -2010,32 +2251,39 @@
       <c r="F43">
         <v>10</v>
       </c>
-      <c r="G43">
-        <v>0.01</v>
-      </c>
-      <c r="H43" s="11">
-        <v>1</v>
-      </c>
-      <c r="I43" s="12">
+      <c r="G43" s="22">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10">
         <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="L43" t="s">
         <v>10</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="20">
         <v>50</v>
       </c>
-      <c r="N43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N43" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="P43" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
@@ -2054,13 +2302,13 @@
       <c r="F44">
         <v>10</v>
       </c>
-      <c r="G44">
-        <v>0.01</v>
-      </c>
-      <c r="H44" s="12">
-        <v>0</v>
-      </c>
-      <c r="I44" s="12">
+      <c r="G44" s="22">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
         <v>0</v>
       </c>
       <c r="J44" t="s">
@@ -2072,14 +2320,21 @@
       <c r="L44" t="s">
         <v>10</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="20">
         <v>50</v>
       </c>
-      <c r="N44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N44" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P44" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>9</v>
       </c>
@@ -2098,13 +2353,13 @@
       <c r="F45">
         <v>10</v>
       </c>
-      <c r="G45">
-        <v>0.01</v>
-      </c>
-      <c r="H45" s="12">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
         <v>1</v>
       </c>
       <c r="J45" t="s">
@@ -2116,21 +2371,35 @@
       <c r="L45" t="s">
         <v>10</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="20">
         <v>50</v>
       </c>
-      <c r="N45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="N45" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="P45" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47">
         <v>30</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>1E-3</v>
       </c>
       <c r="D47">
@@ -2142,32 +2411,39 @@
       <c r="F47">
         <v>10</v>
       </c>
-      <c r="G47">
-        <v>0.01</v>
-      </c>
-      <c r="H47" s="11">
-        <v>1</v>
-      </c>
-      <c r="I47" s="12">
+      <c r="G47" s="22">
+        <v>0</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1</v>
+      </c>
+      <c r="I47" s="10">
         <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="L47" t="s">
         <v>10</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="21">
         <v>90</v>
       </c>
-      <c r="N47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N47" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="P47" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>9</v>
       </c>
@@ -2186,13 +2462,13 @@
       <c r="F48">
         <v>10</v>
       </c>
-      <c r="G48">
-        <v>0.01</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0</v>
-      </c>
-      <c r="I48" s="12">
+      <c r="G48" s="22">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
         <v>0</v>
       </c>
       <c r="J48" t="s">
@@ -2204,14 +2480,21 @@
       <c r="L48" t="s">
         <v>10</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="21">
         <v>90</v>
       </c>
-      <c r="N48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N48" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="P48" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
@@ -2230,30 +2513,510 @@
       <c r="F49">
         <v>10</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="22">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L49" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" s="21">
+        <v>90</v>
+      </c>
+      <c r="N49" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="P49" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>30</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D51">
+        <v>0.1</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51" s="30">
         <v>0.01</v>
       </c>
-      <c r="H49" s="12">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="L49" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49">
+      <c r="H51" s="9">
+        <v>1</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L51" t="s">
+        <v>10</v>
+      </c>
+      <c r="M51" s="19">
+        <v>0</v>
+      </c>
+      <c r="N51" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="P51" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>30</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D52">
+        <v>0.1</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L52" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="19">
+        <v>0</v>
+      </c>
+      <c r="N52" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="P52" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>30</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D53">
+        <v>0.1</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L53" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="19">
+        <v>0</v>
+      </c>
+      <c r="N53" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P53" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>30</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D55">
+        <v>0.1</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="H55" s="9">
+        <v>1</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M55" s="20">
+        <v>50</v>
+      </c>
+      <c r="N55" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="P55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>30</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D56">
+        <v>0.1</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L56" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56" s="20">
+        <v>50</v>
+      </c>
+      <c r="N56" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="P56" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D57">
+        <v>0.1</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L57" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="20">
+        <v>50</v>
+      </c>
+      <c r="N57" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="P57" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D59">
+        <v>0.1</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L59" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" s="21">
         <v>90</v>
       </c>
-      <c r="N49" t="s">
-        <v>28</v>
-      </c>
+      <c r="N59" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="P59" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>30</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D60">
+        <v>0.1</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L60" t="s">
+        <v>10</v>
+      </c>
+      <c r="M60" s="21">
+        <v>90</v>
+      </c>
+      <c r="N60" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="P60" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>30</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D61">
+        <v>0.1</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L61" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" s="21">
+        <v>90</v>
+      </c>
+      <c r="N61" s="13">
+        <v>0.32</v>
+      </c>
+      <c r="P61" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="593" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93F4D6AC-F051-4EAE-B6AD-E6CA819F39EE}"/>
+  <xr:revisionPtr revIDLastSave="602" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15470C29-124A-43DD-8FD9-3D83CA70396C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,6 +391,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -895,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W55" sqref="W55"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +906,7 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" customWidth="1"/>
     <col min="8" max="9" width="11.28515625" customWidth="1"/>
@@ -918,6 +919,7 @@
     <col min="16" max="16" width="8.5703125" customWidth="1"/>
     <col min="17" max="17" width="4.5703125" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" customWidth="1"/>
     <col min="22" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2049,7 +2051,7 @@
       <c r="M37" s="20">
         <v>50</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="31">
         <v>0.42</v>
       </c>
       <c r="P37" s="23" t="s">
@@ -2221,7 +2223,7 @@
       <c r="M41" s="21">
         <v>90</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="31">
         <v>0.42</v>
       </c>
       <c r="P41" s="23" t="s">
@@ -2374,7 +2376,7 @@
       <c r="M45" s="20">
         <v>50</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="31">
         <v>0.31</v>
       </c>
       <c r="P45" s="24" t="s">
@@ -2534,7 +2536,7 @@
       <c r="M49" s="21">
         <v>90</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N49" s="31">
         <v>0.3</v>
       </c>
       <c r="P49" s="24" t="s">
@@ -2687,7 +2689,7 @@
       <c r="M53" s="19">
         <v>0</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N53" s="31">
         <v>0.28999999999999998</v>
       </c>
       <c r="P53" s="25" t="s">
@@ -2847,7 +2849,7 @@
       <c r="M57" s="20">
         <v>50</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N57" s="31">
         <v>0.33</v>
       </c>
       <c r="P57" s="25" t="s">
@@ -3007,7 +3009,7 @@
       <c r="M61" s="21">
         <v>90</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N61" s="31">
         <v>0.32</v>
       </c>
       <c r="P61" s="25" t="s">

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15470C29-124A-43DD-8FD9-3D83CA70396C}"/>
+  <xr:revisionPtr revIDLastSave="684" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F5FCEC2-FE53-4F84-9CD1-4F04AB1A1602}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
+    <sheet name="FedAVG" sheetId="2" r:id="rId2"/>
+    <sheet name="FedGKT" sheetId="3" r:id="rId3"/>
+    <sheet name="Gradient Inversion" sheetId="4" r:id="rId4"/>
+    <sheet name="FedProx" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -631,6 +636,867 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>29938</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D5D273-C644-D694-F9AF-D07C404310AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="180975"/>
+          <a:ext cx="18832288" cy="6591300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2214D2B5-4E77-B67C-92D6-BC1DD64B7941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181099" y="5829299"/>
+          <a:ext cx="10163175" cy="10163175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F89621-8868-D0F5-3F81-28985CB656DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306050" y="5829300"/>
+          <a:ext cx="10182225" cy="10182225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>119746</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9E1280-6CCE-DF76-4CA5-02E8CDB88F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="171449"/>
+          <a:ext cx="18941146" cy="6629401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16649</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>455506</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D79819C-4DDA-70E7-6224-A6758F71A597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1235849" y="6827025"/>
+          <a:ext cx="9582857" cy="6708000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>20468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B4D231-537F-AADD-CD51-3392C73C53F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767850" y="6815100"/>
+          <a:ext cx="9615526" cy="6730868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8977</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>40735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E71C5E01-F504-B78A-FB86-6986AE96FD73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="5438775"/>
+          <a:ext cx="4380952" cy="4317460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>521475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25627</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F29B29-E223-69FE-A9FC-DBE2852B51D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1131075" y="302400"/>
+          <a:ext cx="4380952" cy="4317460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>538125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>42277</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE66D1C-F4C6-FA4F-EC7C-4546C1374A90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7243725" y="5453025"/>
+          <a:ext cx="4380952" cy="4317460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>535725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>116625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39877</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BE6316-63EB-3C86-318B-DB87AEFF5ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7241325" y="307125"/>
+          <a:ext cx="4380952" cy="4317460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>30478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78196403-05FA-F6F3-A73D-1CAF35E51D12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="0"/>
+          <a:ext cx="16878300" cy="10126978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>340499</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>111898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>149702</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>142198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50641A79-EAF6-B308-1AA6-1FAB70DA548E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="950099" y="10589398"/>
+          <a:ext cx="16878003" cy="10126800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>116701</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>237354</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C14C9EC-36FE-42F9-A956-45F3087BC2B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="116701" y="0"/>
+          <a:ext cx="12922253" cy="7753350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>311153</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD9C3D7-C89E-41FA-95AD-1B0929111061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11801475" y="0"/>
+          <a:ext cx="12893678" cy="7736205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0851FA2-FF1B-CDCE-1C7A-C83E21EBA697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="5048250"/>
+          <a:ext cx="3562350" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9ADCD03-A47D-4603-83AB-92992C5791D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="933450"/>
+          <a:ext cx="3562350" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -896,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
@@ -3025,4 +3891,79 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8F8B02-0034-4B54-8EA3-27FCEEA2E17C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ67" sqref="AJ67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDD63C6-C342-4BA8-8926-66D7B85E351D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC77" sqref="AC77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231B4934-7CE7-412E-BB0A-424A56245F37}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z36" sqref="Z36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DF3736-DCB6-4CE0-A331-D960014ACFE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AE44" sqref="AE44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88870192-74B2-4999-A570-A3F3CFDFAFFC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="684" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F5FCEC2-FE53-4F84-9CD1-4F04AB1A1602}"/>
+  <xr:revisionPtr revIDLastSave="715" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{068E6AFC-AF79-4039-AAC8-008588D5B5D3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
-    <sheet name="FedAVG" sheetId="2" r:id="rId2"/>
-    <sheet name="FedGKT" sheetId="3" r:id="rId3"/>
-    <sheet name="Gradient Inversion" sheetId="4" r:id="rId4"/>
-    <sheet name="FedProx" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="CENTRALIZED" sheetId="7" r:id="rId2"/>
+    <sheet name="FedAVG" sheetId="2" r:id="rId3"/>
+    <sheet name="FedGKT" sheetId="3" r:id="rId4"/>
+    <sheet name="Gradient Inversion" sheetId="4" r:id="rId5"/>
+    <sheet name="FedProx" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -641,22 +642,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>29938</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>555170</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D5D273-C644-D694-F9AF-D07C404310AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7502B9-948F-B373-9783-8E368402FC60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -678,8 +679,63 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="180975"/>
-          <a:ext cx="18832288" cy="6591300"/>
+          <a:off x="0" y="495300"/>
+          <a:ext cx="18233570" cy="6381750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2636EF9C-6226-7A03-6A0F-4252611C9BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="76199"/>
+          <a:ext cx="19730357" cy="6905625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -691,22 +747,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>416699</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>92849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2214D2B5-4E77-B67C-92D6-BC1DD64B7941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2061D58-BFAF-66A9-F5BA-DA3EDF80C7F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -728,8 +784,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1181099" y="5829299"/>
-          <a:ext cx="10163175" cy="10163175"/>
+          <a:off x="1026299" y="6379349"/>
+          <a:ext cx="11518126" cy="11518126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -740,23 +796,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>90449</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F89621-8868-D0F5-3F81-28985CB656DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E389F9-F8F8-8943-9108-F4DBC7219502}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -778,8 +834,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10306050" y="5829300"/>
-          <a:ext cx="10182225" cy="10182225"/>
+          <a:off x="11063249" y="6386474"/>
+          <a:ext cx="11520526" cy="11520526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>30900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>194743</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85AD00E3-014D-A7CC-A9FA-B20753DCE3A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17366400"/>
+          <a:ext cx="20921143" cy="7322400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -791,7 +897,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -946,7 +1052,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1151,7 +1257,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1256,7 +1362,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1491,10 +1597,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1762,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W46" sqref="W46"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X54" sqref="X54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,11 +3996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8F8B02-0034-4B54-8EA3-27FCEEA2E17C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E887CFE-9ACC-4691-AA97-0F3723B328AE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AJ67" sqref="AJ67"/>
+      <selection activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,6 +4011,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8F8B02-0034-4B54-8EA3-27FCEEA2E17C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDD63C6-C342-4BA8-8926-66D7B85E351D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3923,7 +4040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231B4934-7CE7-412E-BB0A-424A56245F37}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3938,7 +4055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DF3736-DCB6-4CE0-A331-D960014ACFE7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3953,11 +4070,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88870192-74B2-4999-A570-A3F3CFDFAFFC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="715" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{068E6AFC-AF79-4039-AAC8-008588D5B5D3}"/>
+  <xr:revisionPtr revIDLastSave="717" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615A71F4-9EB6-4439-840F-9BB2415DD6AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="44">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve"> -&gt; BatchNorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; not saved?</t>
   </si>
 </sst>
 </file>
@@ -1533,15 +1536,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>497498</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>120161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>402248</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>43961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1556,8 +1559,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8429625" y="933450"/>
-          <a:ext cx="3562350" cy="2019300"/>
+          <a:off x="8403248" y="882161"/>
+          <a:ext cx="3553558" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1864,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X54" sqref="X54"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,6 +2192,9 @@
       <c r="R8" s="17">
         <v>0.28999999999999998</v>
       </c>
+      <c r="S8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
@@ -4014,7 +4020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8F8B02-0034-4B54-8EA3-27FCEEA2E17C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
@@ -4059,7 +4065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DF3736-DCB6-4CE0-A331-D960014ACFE7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="AE44" sqref="AE44"/>
     </sheetView>
   </sheetViews>
@@ -4074,8 +4080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88870192-74B2-4999-A570-A3F3CFDFAFFC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="717" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615A71F4-9EB6-4439-840F-9BB2415DD6AE}"/>
+  <xr:revisionPtr revIDLastSave="750" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0BCEF66-22E5-4740-A1BF-60A0E54C0289}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="48">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t xml:space="preserve"> -&gt; not saved?</t>
+  </si>
+  <si>
+    <t>UNBALACED</t>
+  </si>
+  <si>
+    <t>(-0,30)</t>
+  </si>
+  <si>
+    <t>(-0,12)</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -358,7 +370,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,6 +413,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -631,6 +644,77 @@
           <a:r>
             <a:rPr lang="it-IT" sz="1400" b="1"/>
             <a:t>FedProx</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219809</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>406915</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2788632-A087-4800-8B04-B7D18253A442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12726867" y="3494943"/>
+          <a:ext cx="795240" cy="263397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" b="1"/>
+            <a:t>CCVR</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1865,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2444,7 @@
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J14" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
@@ -2397,8 +2481,14 @@
       <c r="L20" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>9</v>
       </c>
@@ -2441,8 +2531,20 @@
       <c r="P21" s="14">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U21" s="18">
+        <v>1</v>
+      </c>
+      <c r="V21" s="32">
+        <v>0</v>
+      </c>
+      <c r="X21" s="31">
+        <v>0.38</v>
+      </c>
+      <c r="Y21" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>9</v>
       </c>
@@ -2491,8 +2593,17 @@
       <c r="R22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U22" s="32">
+        <v>0</v>
+      </c>
+      <c r="V22" s="32">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>9</v>
       </c>
@@ -2532,8 +2643,20 @@
       <c r="M23" s="13">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U23" s="32">
+        <v>0</v>
+      </c>
+      <c r="V23" s="18">
+        <v>1</v>
+      </c>
+      <c r="X23" s="31">
+        <v>0.17</v>
+      </c>
+      <c r="Y23" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>7</v>
       </c>
@@ -2577,7 +2700,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>7</v>
       </c>
@@ -2621,7 +2744,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>7</v>
       </c>
@@ -2662,7 +2785,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -2703,7 +2826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -2758,7 +2881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="750" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0BCEF66-22E5-4740-A1BF-60A0E54C0289}"/>
+  <xr:revisionPtr revIDLastSave="784" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02DF997A-8E13-444A-8A29-D01A1044E8A0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28695" yWindow="3600" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="48">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -178,13 +178,13 @@
     <t>UNBALACED</t>
   </si>
   <si>
-    <t>(-0,30)</t>
-  </si>
-  <si>
-    <t>(-0,12)</t>
-  </si>
-  <si>
-    <t>???</t>
+    <t>(+8%)</t>
+  </si>
+  <si>
+    <t>(-4,5%)</t>
+  </si>
+  <si>
+    <t>(+5,2%)</t>
   </si>
 </sst>
 </file>
@@ -1949,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,7 +2444,7 @@
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J14" s="2"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
@@ -2481,6 +2481,12 @@
       <c r="L20" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="S20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="U20" s="8" t="s">
         <v>14</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>9</v>
       </c>
@@ -2531,6 +2537,12 @@
       <c r="P21" s="14">
         <v>0.7</v>
       </c>
+      <c r="S21">
+        <v>5000</v>
+      </c>
+      <c r="T21">
+        <v>1E-4</v>
+      </c>
       <c r="U21" s="18">
         <v>1</v>
       </c>
@@ -2538,13 +2550,17 @@
         <v>0</v>
       </c>
       <c r="X21" s="31">
-        <v>0.38</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="Y21" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="Z21">
+        <f>SUM(X21-M6)</f>
+        <v>-4.500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>9</v>
       </c>
@@ -2599,11 +2615,18 @@
       <c r="V22" s="32">
         <v>0</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22" s="13">
+        <v>0.37259999999999999</v>
+      </c>
+      <c r="Y22" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <f>SUM(X22-L7)</f>
+        <v>5.259999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>9</v>
       </c>
@@ -2643,20 +2666,30 @@
       <c r="M23" s="13">
         <v>0.52</v>
       </c>
+      <c r="S23">
+        <v>5000</v>
+      </c>
+      <c r="T23">
+        <v>1E-4</v>
+      </c>
       <c r="U23" s="32">
         <v>0</v>
       </c>
       <c r="V23" s="18">
         <v>1</v>
       </c>
-      <c r="X23" s="31">
-        <v>0.17</v>
-      </c>
-      <c r="Y23" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X23" s="13">
+        <v>0.37069999999999997</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z23">
+        <f>SUM(X23,-R8)</f>
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>7</v>
       </c>
@@ -2700,7 +2733,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>7</v>
       </c>
@@ -2744,7 +2777,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>7</v>
       </c>
@@ -2785,7 +2818,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -2826,7 +2859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -2881,7 +2914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="784" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02DF997A-8E13-444A-8A29-D01A1044E8A0}"/>
+  <xr:revisionPtr revIDLastSave="895" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6E3F4C2-58F5-4BCD-B45E-BB747A8F67EB}"/>
   <bookViews>
-    <workbookView xWindow="-28695" yWindow="3600" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1440" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="52">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -181,10 +181,22 @@
     <t>(+8%)</t>
   </si>
   <si>
-    <t>(-4,5%)</t>
-  </si>
-  <si>
-    <t>(+5,2%)</t>
+    <t>Mc</t>
+  </si>
+  <si>
+    <t>(-1,6%)</t>
+  </si>
+  <si>
+    <t>(+10,5%)</t>
+  </si>
+  <si>
+    <t>(+10,4%)</t>
+  </si>
+  <si>
+    <t>(+8,1%)</t>
+  </si>
+  <si>
+    <t>(+8,2%)</t>
   </si>
 </sst>
 </file>
@@ -370,7 +382,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,6 +426,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -652,15 +667,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>219809</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>406915</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>138840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1949,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,7 +1984,7 @@
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
     <col min="15" max="15" width="2.42578125" customWidth="1"/>
     <col min="16" max="16" width="8.5703125" customWidth="1"/>
     <col min="17" max="17" width="4.5703125" customWidth="1"/>
@@ -2444,7 +2459,7 @@
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J14" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
@@ -2481,20 +2496,8 @@
       <c r="L20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>9</v>
       </c>
@@ -2537,30 +2540,8 @@
       <c r="P21" s="14">
         <v>0.7</v>
       </c>
-      <c r="S21">
-        <v>5000</v>
-      </c>
-      <c r="T21">
-        <v>1E-4</v>
-      </c>
-      <c r="U21" s="18">
-        <v>1</v>
-      </c>
-      <c r="V21" s="32">
-        <v>0</v>
-      </c>
-      <c r="X21" s="31">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="Y21" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z21">
-        <f>SUM(X21-M6)</f>
-        <v>-4.500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>9</v>
       </c>
@@ -2609,24 +2590,8 @@
       <c r="R22" t="s">
         <v>24</v>
       </c>
-      <c r="U22" s="32">
-        <v>0</v>
-      </c>
-      <c r="V22" s="32">
-        <v>0</v>
-      </c>
-      <c r="X22" s="13">
-        <v>0.37259999999999999</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z22">
-        <f>SUM(X22-L7)</f>
-        <v>5.259999999999998E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>9</v>
       </c>
@@ -2666,30 +2631,8 @@
       <c r="M23" s="13">
         <v>0.52</v>
       </c>
-      <c r="S23">
-        <v>5000</v>
-      </c>
-      <c r="T23">
-        <v>1E-4</v>
-      </c>
-      <c r="U23" s="32">
-        <v>0</v>
-      </c>
-      <c r="V23" s="18">
-        <v>1</v>
-      </c>
-      <c r="X23" s="13">
-        <v>0.37069999999999997</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z23">
-        <f>SUM(X23,-R8)</f>
-        <v>8.0699999999999994E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>7</v>
       </c>
@@ -2733,7 +2676,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>7</v>
       </c>
@@ -2777,7 +2720,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>7</v>
       </c>
@@ -2818,7 +2761,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -2859,7 +2802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -2914,7 +2857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -4149,6 +4092,268 @@
       <c r="R61" s="25"/>
       <c r="S61" s="25"/>
       <c r="T61" s="25"/>
+    </row>
+    <row r="66" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P68" s="8"/>
+      <c r="R68" s="8"/>
+    </row>
+    <row r="69" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>1000</v>
+      </c>
+      <c r="H69">
+        <v>1000</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J69" s="18">
+        <v>1</v>
+      </c>
+      <c r="K69" s="32">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1000</v>
+      </c>
+      <c r="M69" s="31">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="N69" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>1000</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J70" s="32">
+        <v>0</v>
+      </c>
+      <c r="K70" s="32">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1000</v>
+      </c>
+      <c r="M70" s="13">
+        <v>0.42449999999999999</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>1000</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J71" s="32">
+        <v>0</v>
+      </c>
+      <c r="K71" s="18">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1000</v>
+      </c>
+      <c r="M71" s="13">
+        <v>0.37069999999999997</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="J72" s="32"/>
+      <c r="K72" s="18"/>
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>500</v>
+      </c>
+      <c r="H73">
+        <v>1000</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J73" s="18">
+        <v>1</v>
+      </c>
+      <c r="K73" s="32">
+        <v>0</v>
+      </c>
+      <c r="L73" s="33">
+        <v>500</v>
+      </c>
+      <c r="M73" s="31">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="N73" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>500</v>
+      </c>
+      <c r="H74">
+        <v>1000</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J74" s="32">
+        <v>0</v>
+      </c>
+      <c r="K74" s="32">
+        <v>0</v>
+      </c>
+      <c r="L74" s="33">
+        <v>500</v>
+      </c>
+      <c r="M74" s="13">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="J75" s="32">
+        <v>0</v>
+      </c>
+      <c r="K75" s="18">
+        <v>1</v>
+      </c>
+      <c r="L75" s="33">
+        <v>500</v>
+      </c>
+      <c r="M75" s="13">
+        <v>0.371</v>
+      </c>
+      <c r="N75" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="L76" s="33"/>
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>50</v>
+      </c>
+      <c r="H77">
+        <v>1000</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J77" s="18">
+        <v>1</v>
+      </c>
+      <c r="K77" s="32">
+        <v>0</v>
+      </c>
+      <c r="L77" s="33">
+        <v>100</v>
+      </c>
+      <c r="M77" s="31">
+        <v>0.6643</v>
+      </c>
+      <c r="N77" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>50</v>
+      </c>
+      <c r="H78">
+        <v>1000</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J78" s="32">
+        <v>0</v>
+      </c>
+      <c r="K78" s="32">
+        <v>0</v>
+      </c>
+      <c r="L78" s="33">
+        <v>100</v>
+      </c>
+      <c r="M78" s="13">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>50</v>
+      </c>
+      <c r="H79">
+        <v>1000</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J79" s="32">
+        <v>0</v>
+      </c>
+      <c r="K79" s="18">
+        <v>1</v>
+      </c>
+      <c r="L79" s="33">
+        <v>100</v>
+      </c>
+      <c r="M79" s="13">
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="N79" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RESULT_SUMMARY.xlsx
+++ b/RESULT_SUMMARY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s306089_studenti_polito_it/Documents/PoliTO/MASTER/MACHINE LEARNING AND DEEP LEARNING/MLDL Federated Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="895" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6E3F4C2-58F5-4BCD-B45E-BB747A8F67EB}"/>
+  <xr:revisionPtr revIDLastSave="949" documentId="13_ncr:1_{FA094368-407E-439F-8C3E-8492F4A9DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F7D053-F5B3-4398-A7E0-11B3A193894E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1440" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="FedGKT" sheetId="3" r:id="rId4"/>
     <sheet name="Gradient Inversion" sheetId="4" r:id="rId5"/>
     <sheet name="FedProx" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="57">
   <si>
     <t>NORMALIZATION</t>
   </si>
@@ -197,6 +196,21 @@
   </si>
   <si>
     <t>(+8,2%)</t>
+  </si>
+  <si>
+    <t>FedAVG</t>
+  </si>
+  <si>
+    <t>FairAVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = FairAVG</t>
+  </si>
+  <si>
+    <t>(+8,9%)</t>
+  </si>
+  <si>
+    <t>(+9,5%)</t>
   </si>
 </sst>
 </file>
@@ -407,7 +421,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -429,6 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1464,243 +1478,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>116701</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>237354</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C14C9EC-36FE-42F9-A956-45F3087BC2B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="116701" y="0"/>
-          <a:ext cx="12922253" cy="7753350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>311153</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD9C3D7-C89E-41FA-95AD-1B0929111061}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11801475" y="0"/>
-          <a:ext cx="12893678" cy="7736205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0851FA2-FF1B-CDCE-1C7A-C83E21EBA697}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8420100" y="5048250"/>
-          <a:ext cx="3562350" cy="2019300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="it-IT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>497498</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>120161</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>402248</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>43961</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9ADCD03-A47D-4603-83AB-92992C5791D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8403248" y="882161"/>
-          <a:ext cx="3553558" cy="2019300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="it-IT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1964,18 +1741,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W79"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T82" sqref="T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" customWidth="1"/>
@@ -1989,7 +1766,7 @@
     <col min="16" max="16" width="8.5703125" customWidth="1"/>
     <col min="17" max="17" width="4.5703125" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
     <col min="22" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2028,7 +1805,7 @@
       <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="15" t="s">
@@ -2036,7 +1813,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3">
@@ -2069,18 +1846,18 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="27">
         <v>0.89</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="3"/>
-      <c r="V3" s="29"/>
+      <c r="V3" s="28"/>
       <c r="W3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
@@ -2113,7 +1890,7 @@
       <c r="K4" s="3">
         <v>4</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="27">
         <v>0.74</v>
       </c>
       <c r="M4" s="6"/>
@@ -2135,13 +1912,13 @@
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="28"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="6"/>
       <c r="N5" s="3"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3">
@@ -2174,23 +1951,23 @@
       <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="27">
         <v>0.67</v>
       </c>
       <c r="M6" s="11">
         <v>0.68</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="P6" s="14">
+      <c r="P6">
         <v>0.68</v>
       </c>
-      <c r="V6" s="26"/>
+      <c r="V6" s="25"/>
       <c r="W6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
@@ -2230,7 +2007,7 @@
         <v>0.67</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="P7" s="14">
+      <c r="P7">
         <v>0.16</v>
       </c>
       <c r="Q7" t="s">
@@ -2239,13 +2016,13 @@
       <c r="R7" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="27"/>
+      <c r="V7" s="26"/>
       <c r="W7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
@@ -2278,17 +2055,17 @@
       <c r="K8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="33">
         <v>0.52</v>
       </c>
       <c r="M8" s="6">
         <v>0.66</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="P8" s="14">
+      <c r="P8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="16">
         <v>0.28999999999999998</v>
       </c>
       <c r="S8" t="s">
@@ -2296,7 +2073,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
@@ -2329,14 +2106,14 @@
       <c r="K9" s="3">
         <v>4</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="27">
         <v>0.45</v>
       </c>
       <c r="M9" s="11">
         <v>0.42</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="P9" s="14">
+      <c r="P9">
         <v>0.45</v>
       </c>
       <c r="V9" s="12"/>
@@ -2345,7 +2122,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3">
@@ -2385,12 +2162,12 @@
         <v>0.46</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="P10" s="14">
+      <c r="P10">
         <v>0.22</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
@@ -2423,18 +2200,22 @@
       <c r="K11" s="3">
         <v>4</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="33">
         <v>0.27</v>
       </c>
       <c r="M11" s="6">
         <v>0.45</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="P11" s="14">
+      <c r="P11">
         <v>0.37</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="16">
         <v>0.21</v>
+      </c>
+      <c r="V11" s="14"/>
+      <c r="W11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -2498,7 +2279,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="3">
@@ -2542,7 +2323,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="3">
@@ -2592,7 +2373,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="3">
@@ -2633,7 +2414,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="3">
@@ -2677,7 +2458,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="3">
@@ -2721,7 +2502,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="3">
@@ -2821,7 +2602,7 @@
       <c r="F31">
         <v>10</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>0</v>
       </c>
       <c r="H31" s="9">
@@ -2839,20 +2620,20 @@
       <c r="L31" t="s">
         <v>10</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="18">
         <v>0</v>
       </c>
       <c r="N31" s="13">
         <v>0.73</v>
       </c>
-      <c r="P31" s="23" t="s">
+      <c r="P31" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="V31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="V31" s="21"/>
       <c r="W31" t="s">
         <v>33</v>
       </c>
@@ -2876,7 +2657,7 @@
       <c r="F32">
         <v>10</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>0</v>
       </c>
       <c r="H32" s="10">
@@ -2894,20 +2675,20 @@
       <c r="L32" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="18">
         <v>0</v>
       </c>
       <c r="N32" s="13">
         <v>0.21</v>
       </c>
-      <c r="P32" s="23" t="s">
+      <c r="P32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="V32" s="30"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="V32" s="29"/>
       <c r="W32" t="s">
         <v>34</v>
       </c>
@@ -2931,7 +2712,7 @@
       <c r="F33">
         <v>10</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="21">
         <v>0</v>
       </c>
       <c r="H33" s="10">
@@ -2949,27 +2730,27 @@
       <c r="L33" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="18">
         <v>0</v>
       </c>
       <c r="N33" s="13">
         <v>0.24</v>
       </c>
-      <c r="P33" s="23" t="s">
+      <c r="P33" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="V34" s="19"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="V34" s="18"/>
       <c r="W34" t="s">
         <v>35</v>
       </c>
@@ -2993,7 +2774,7 @@
       <c r="F35">
         <v>10</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <v>0</v>
       </c>
       <c r="H35" s="9">
@@ -3011,20 +2792,20 @@
       <c r="L35" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="19">
         <v>50</v>
       </c>
       <c r="N35" s="13">
         <v>0.71</v>
       </c>
-      <c r="P35" s="23" t="s">
+      <c r="P35" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="V35" s="20"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="V35" s="19"/>
       <c r="W35" t="s">
         <v>36</v>
       </c>
@@ -3048,7 +2829,7 @@
       <c r="F36">
         <v>10</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="21">
         <v>0</v>
       </c>
       <c r="H36" s="10">
@@ -3066,20 +2847,20 @@
       <c r="L36" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="19">
         <v>50</v>
       </c>
       <c r="N36" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P36" s="23" t="s">
+      <c r="P36" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="V36" s="21"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="V36" s="20"/>
       <c r="W36" t="s">
         <v>37</v>
       </c>
@@ -3103,7 +2884,7 @@
       <c r="F37">
         <v>10</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="21">
         <v>0</v>
       </c>
       <c r="H37" s="10">
@@ -3121,27 +2902,27 @@
       <c r="L37" t="s">
         <v>10</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37" s="19">
         <v>50</v>
       </c>
-      <c r="N37" s="31">
+      <c r="N37" s="30">
         <v>0.42</v>
       </c>
-      <c r="P37" s="23" t="s">
+      <c r="P37" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="V38" s="23"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="V38" s="22"/>
       <c r="W38" t="s">
         <v>28</v>
       </c>
@@ -3165,7 +2946,7 @@
       <c r="F39">
         <v>10</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="21">
         <v>0</v>
       </c>
       <c r="H39" s="9">
@@ -3183,20 +2964,20 @@
       <c r="L39" t="s">
         <v>10</v>
       </c>
-      <c r="M39" s="21">
+      <c r="M39" s="20">
         <v>90</v>
       </c>
       <c r="N39" s="13">
         <v>0.59</v>
       </c>
-      <c r="P39" s="23" t="s">
+      <c r="P39" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="V39" s="24"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="V39" s="23"/>
       <c r="W39" t="s">
         <v>39</v>
       </c>
@@ -3220,7 +3001,7 @@
       <c r="F40">
         <v>10</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="21">
         <v>0</v>
       </c>
       <c r="H40" s="10">
@@ -3238,20 +3019,20 @@
       <c r="L40" t="s">
         <v>10</v>
       </c>
-      <c r="M40" s="21">
+      <c r="M40" s="20">
         <v>90</v>
       </c>
       <c r="N40" s="13">
         <v>0.12</v>
       </c>
-      <c r="P40" s="23" t="s">
+      <c r="P40" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="V40" s="25"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="V40" s="24"/>
       <c r="W40" t="s">
         <v>40</v>
       </c>
@@ -3275,7 +3056,7 @@
       <c r="F41">
         <v>10</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="21">
         <v>0</v>
       </c>
       <c r="H41" s="10">
@@ -3293,19 +3074,19 @@
       <c r="L41" t="s">
         <v>10</v>
       </c>
-      <c r="M41" s="21">
+      <c r="M41" s="20">
         <v>90</v>
       </c>
-      <c r="N41" s="31">
+      <c r="N41" s="30">
         <v>0.42</v>
       </c>
-      <c r="P41" s="23" t="s">
+      <c r="P41" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -3326,10 +3107,10 @@
       <c r="F43">
         <v>10</v>
       </c>
-      <c r="G43" s="22">
-        <v>0</v>
-      </c>
-      <c r="H43" s="18">
+      <c r="G43" s="21">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
         <v>1</v>
       </c>
       <c r="I43" s="10">
@@ -3344,19 +3125,19 @@
       <c r="L43" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="19">
         <v>50</v>
       </c>
       <c r="N43" s="13">
         <v>0.7</v>
       </c>
-      <c r="P43" s="24" t="s">
+      <c r="P43" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -3377,7 +3158,7 @@
       <c r="F44">
         <v>10</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="21">
         <v>0</v>
       </c>
       <c r="H44" s="10">
@@ -3395,19 +3176,19 @@
       <c r="L44" t="s">
         <v>10</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="19">
         <v>50</v>
       </c>
       <c r="N44" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P44" s="24" t="s">
+      <c r="P44" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -3428,7 +3209,7 @@
       <c r="F45">
         <v>10</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="21">
         <v>0</v>
       </c>
       <c r="H45" s="10">
@@ -3446,26 +3227,26 @@
       <c r="L45" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="19">
         <v>50</v>
       </c>
-      <c r="N45" s="31">
+      <c r="N45" s="30">
         <v>0.31</v>
       </c>
-      <c r="P45" s="24" t="s">
+      <c r="P45" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3486,10 +3267,10 @@
       <c r="F47">
         <v>10</v>
       </c>
-      <c r="G47" s="22">
-        <v>0</v>
-      </c>
-      <c r="H47" s="18">
+      <c r="G47" s="21">
+        <v>0</v>
+      </c>
+      <c r="H47" s="17">
         <v>1</v>
       </c>
       <c r="I47" s="10">
@@ -3504,19 +3285,19 @@
       <c r="L47" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="21">
+      <c r="M47" s="20">
         <v>90</v>
       </c>
       <c r="N47" s="13">
         <v>0.64</v>
       </c>
-      <c r="P47" s="24" t="s">
+      <c r="P47" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -3537,7 +3318,7 @@
       <c r="F48">
         <v>10</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="21">
         <v>0</v>
       </c>
       <c r="H48" s="10">
@@ -3555,19 +3336,19 @@
       <c r="L48" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="21">
+      <c r="M48" s="20">
         <v>90</v>
       </c>
       <c r="N48" s="13">
         <v>0.18</v>
       </c>
-      <c r="P48" s="24" t="s">
+      <c r="P48" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -3588,7 +3369,7 @@
       <c r="F49">
         <v>10</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="21">
         <v>0</v>
       </c>
       <c r="H49" s="10">
@@ -3606,19 +3387,19 @@
       <c r="L49" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="21">
+      <c r="M49" s="20">
         <v>90</v>
       </c>
-      <c r="N49" s="31">
+      <c r="N49" s="30">
         <v>0.3</v>
       </c>
-      <c r="P49" s="24" t="s">
+      <c r="P49" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -3639,7 +3420,7 @@
       <c r="F51">
         <v>10</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="29">
         <v>0.01</v>
       </c>
       <c r="H51" s="9">
@@ -3657,19 +3438,19 @@
       <c r="L51" t="s">
         <v>10</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M51" s="18">
         <v>0</v>
       </c>
       <c r="N51" s="13">
         <v>0.72</v>
       </c>
-      <c r="P51" s="25" t="s">
+      <c r="P51" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -3690,7 +3471,7 @@
       <c r="F52">
         <v>10</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="29">
         <v>0.01</v>
       </c>
       <c r="H52" s="10">
@@ -3708,19 +3489,19 @@
       <c r="L52" t="s">
         <v>10</v>
       </c>
-      <c r="M52" s="19">
-        <v>0</v>
-      </c>
-      <c r="N52" s="17">
+      <c r="M52" s="18">
+        <v>0</v>
+      </c>
+      <c r="N52" s="16">
         <v>0.2</v>
       </c>
-      <c r="P52" s="25" t="s">
+      <c r="P52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -3741,7 +3522,7 @@
       <c r="F53">
         <v>10</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="29">
         <v>0.01</v>
       </c>
       <c r="H53" s="10">
@@ -3759,26 +3540,26 @@
       <c r="L53" t="s">
         <v>10</v>
       </c>
-      <c r="M53" s="19">
-        <v>0</v>
-      </c>
-      <c r="N53" s="31">
+      <c r="M53" s="18">
+        <v>0</v>
+      </c>
+      <c r="N53" s="30">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P53" s="25" t="s">
+      <c r="P53" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -3799,7 +3580,7 @@
       <c r="F55">
         <v>10</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="29">
         <v>0.01</v>
       </c>
       <c r="H55" s="9">
@@ -3817,19 +3598,19 @@
       <c r="L55" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M55" s="19">
         <v>50</v>
       </c>
       <c r="N55" s="13">
         <v>0.71</v>
       </c>
-      <c r="P55" s="25" t="s">
+      <c r="P55" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -3850,7 +3631,7 @@
       <c r="F56">
         <v>10</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="29">
         <v>0.01</v>
       </c>
       <c r="H56" s="10">
@@ -3868,19 +3649,19 @@
       <c r="L56" t="s">
         <v>10</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56" s="19">
         <v>50</v>
       </c>
       <c r="N56" s="13">
         <v>0.16</v>
       </c>
-      <c r="P56" s="25" t="s">
+      <c r="P56" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -3901,7 +3682,7 @@
       <c r="F57">
         <v>10</v>
       </c>
-      <c r="G57" s="30">
+      <c r="G57" s="29">
         <v>0.01</v>
       </c>
       <c r="H57" s="10">
@@ -3919,26 +3700,26 @@
       <c r="L57" t="s">
         <v>10</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="19">
         <v>50</v>
       </c>
-      <c r="N57" s="31">
+      <c r="N57" s="30">
         <v>0.33</v>
       </c>
-      <c r="P57" s="25" t="s">
+      <c r="P57" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="25"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="24"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -3959,7 +3740,7 @@
       <c r="F59">
         <v>10</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G59" s="29">
         <v>0.01</v>
       </c>
       <c r="H59" s="9">
@@ -3977,19 +3758,19 @@
       <c r="L59" t="s">
         <v>10</v>
       </c>
-      <c r="M59" s="21">
+      <c r="M59" s="20">
         <v>90</v>
       </c>
       <c r="N59" s="13">
         <v>0.63</v>
       </c>
-      <c r="P59" s="25" t="s">
+      <c r="P59" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="24"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -4010,7 +3791,7 @@
       <c r="F60">
         <v>10</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G60" s="29">
         <v>0.01</v>
       </c>
       <c r="H60" s="10">
@@ -4028,19 +3809,19 @@
       <c r="L60" t="s">
         <v>10</v>
       </c>
-      <c r="M60" s="21">
+      <c r="M60" s="20">
         <v>90</v>
       </c>
       <c r="N60" s="13">
         <v>0.17</v>
       </c>
-      <c r="P60" s="25" t="s">
+      <c r="P60" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="24"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -4061,7 +3842,7 @@
       <c r="F61">
         <v>10</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="29">
         <v>0.01</v>
       </c>
       <c r="H61" s="10">
@@ -4079,27 +3860,27 @@
       <c r="L61" t="s">
         <v>10</v>
       </c>
-      <c r="M61" s="21">
+      <c r="M61" s="20">
         <v>90</v>
       </c>
-      <c r="N61" s="31">
+      <c r="N61" s="30">
         <v>0.32</v>
       </c>
-      <c r="P61" s="25" t="s">
+      <c r="P61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-    </row>
-    <row r="66" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+    </row>
+    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L66"/>
     </row>
-    <row r="67" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L67"/>
     </row>
-    <row r="68" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G68" s="8" t="s">
         <v>3</v>
       </c>
@@ -4121,7 +3902,10 @@
       <c r="P68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
       <c r="G69">
         <v>1000</v>
       </c>
@@ -4131,23 +3915,26 @@
       <c r="I69" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J69" s="18">
-        <v>1</v>
-      </c>
-      <c r="K69" s="32">
+      <c r="J69" s="17">
+        <v>1</v>
+      </c>
+      <c r="K69" s="31">
         <v>0</v>
       </c>
       <c r="L69">
         <v>1000</v>
       </c>
-      <c r="M69" s="31">
+      <c r="M69" s="30">
         <v>0.66379999999999995</v>
       </c>
-      <c r="N69" s="31" t="s">
+      <c r="N69" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
       <c r="G70">
         <v>1000</v>
       </c>
@@ -4157,10 +3944,10 @@
       <c r="I70" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J70" s="32">
-        <v>0</v>
-      </c>
-      <c r="K70" s="32">
+      <c r="J70" s="31">
+        <v>0</v>
+      </c>
+      <c r="K70" s="31">
         <v>0</v>
       </c>
       <c r="L70">
@@ -4173,7 +3960,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
       <c r="G71">
         <v>1000</v>
       </c>
@@ -4183,10 +3973,10 @@
       <c r="I71" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J71" s="32">
-        <v>0</v>
-      </c>
-      <c r="K71" s="18">
+      <c r="J71" s="31">
+        <v>0</v>
+      </c>
+      <c r="K71" s="17">
         <v>1</v>
       </c>
       <c r="L71">
@@ -4199,12 +3989,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="J72" s="32"/>
-      <c r="K72" s="18"/>
+    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="J72" s="31"/>
+      <c r="K72" s="17"/>
       <c r="L72"/>
     </row>
-    <row r="73" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
       <c r="G73">
         <v>500</v>
       </c>
@@ -4214,23 +4007,26 @@
       <c r="I73" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J73" s="18">
-        <v>1</v>
-      </c>
-      <c r="K73" s="32">
-        <v>0</v>
-      </c>
-      <c r="L73" s="33">
+      <c r="J73" s="17">
+        <v>1</v>
+      </c>
+      <c r="K73" s="31">
+        <v>0</v>
+      </c>
+      <c r="L73" s="32">
         <v>500</v>
       </c>
-      <c r="M73" s="31">
+      <c r="M73" s="30">
         <v>0.66390000000000005</v>
       </c>
-      <c r="N73" s="31" t="s">
+      <c r="N73" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
       <c r="G74">
         <v>500</v>
       </c>
@@ -4240,13 +4036,13 @@
       <c r="I74" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J74" s="32">
-        <v>0</v>
-      </c>
-      <c r="K74" s="32">
-        <v>0</v>
-      </c>
-      <c r="L74" s="33">
+      <c r="J74" s="31">
+        <v>0</v>
+      </c>
+      <c r="K74" s="31">
+        <v>0</v>
+      </c>
+      <c r="L74" s="32">
         <v>500</v>
       </c>
       <c r="M74" s="13">
@@ -4256,14 +4052,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="J75" s="32">
-        <v>0</v>
-      </c>
-      <c r="K75" s="18">
-        <v>1</v>
-      </c>
-      <c r="L75" s="33">
+    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="J75" s="31">
+        <v>0</v>
+      </c>
+      <c r="K75" s="17">
+        <v>1</v>
+      </c>
+      <c r="L75" s="32">
         <v>500</v>
       </c>
       <c r="M75" s="13">
@@ -4273,11 +4072,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="L76" s="33"/>
+    <row r="76" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L76" s="32"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
       <c r="G77">
         <v>50</v>
       </c>
@@ -4287,23 +4089,26 @@
       <c r="I77" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J77" s="18">
-        <v>1</v>
-      </c>
-      <c r="K77" s="32">
-        <v>0</v>
-      </c>
-      <c r="L77" s="33">
+      <c r="J77" s="17">
+        <v>1</v>
+      </c>
+      <c r="K77" s="31">
+        <v>0</v>
+      </c>
+      <c r="L77" s="32">
         <v>100</v>
       </c>
-      <c r="M77" s="31">
+      <c r="M77" s="30">
         <v>0.6643</v>
       </c>
-      <c r="N77" s="31" t="s">
+      <c r="N77" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
       <c r="G78">
         <v>50</v>
       </c>
@@ -4313,13 +4118,13 @@
       <c r="I78" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J78" s="32">
-        <v>0</v>
-      </c>
-      <c r="K78" s="32">
-        <v>0</v>
-      </c>
-      <c r="L78" s="33">
+      <c r="J78" s="31">
+        <v>0</v>
+      </c>
+      <c r="K78" s="31">
+        <v>0</v>
+      </c>
+      <c r="L78" s="32">
         <v>100</v>
       </c>
       <c r="M78" s="13">
@@ -4329,7 +4134,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
       <c r="G79">
         <v>50</v>
       </c>
@@ -4339,13 +4147,13 @@
       <c r="I79" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J79" s="32">
-        <v>0</v>
-      </c>
-      <c r="K79" s="18">
-        <v>1</v>
-      </c>
-      <c r="L79" s="33">
+      <c r="J79" s="31">
+        <v>0</v>
+      </c>
+      <c r="K79" s="17">
+        <v>1</v>
+      </c>
+      <c r="L79" s="32">
         <v>100</v>
       </c>
       <c r="M79" s="13">
@@ -4353,6 +4161,93 @@
       </c>
       <c r="N79" s="13" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81">
+        <v>1000</v>
+      </c>
+      <c r="H81">
+        <v>1000</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J81" s="17">
+        <v>1</v>
+      </c>
+      <c r="K81" s="31">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M81" s="13">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82">
+        <v>500</v>
+      </c>
+      <c r="H82">
+        <v>1000</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J82" s="17">
+        <v>1</v>
+      </c>
+      <c r="K82" s="31">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>500</v>
+      </c>
+      <c r="M82" s="13">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="N82" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83">
+        <v>50</v>
+      </c>
+      <c r="H83">
+        <v>1000</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J83" s="17">
+        <v>1</v>
+      </c>
+      <c r="K83" s="31">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>100</v>
+      </c>
+      <c r="M83" s="13">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4366,7 +4261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E887CFE-9ACC-4691-AA97-0F3723B328AE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
@@ -4381,7 +4276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8F8B02-0034-4B54-8EA3-27FCEEA2E17C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
@@ -4411,7 +4306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231B4934-7CE7-412E-BB0A-424A56245F37}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
@@ -4426,7 +4321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DF3736-DCB6-4CE0-A331-D960014ACFE7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="AE44" sqref="AE44"/>
     </sheetView>
   </sheetViews>
@@ -4435,19 +4330,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88870192-74B2-4999-A570-A3F3CFDFAFFC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>